--- a/bd/DISTRIBUCION  DE CAMPOS  GAC 2020.xlsx
+++ b/bd/DISTRIBUCION  DE CAMPOS  GAC 2020.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$E$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$E$113</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="236">
   <si>
     <t>CAMPO</t>
   </si>
@@ -690,6 +690,51 @@
   </si>
   <si>
     <t>GERENCIA</t>
+  </si>
+  <si>
+    <t>127849</t>
+  </si>
+  <si>
+    <t>38742</t>
+  </si>
+  <si>
+    <t>142245</t>
+  </si>
+  <si>
+    <t>39389</t>
+  </si>
+  <si>
+    <t>77756</t>
+  </si>
+  <si>
+    <t>77253</t>
+  </si>
+  <si>
+    <t>140235</t>
+  </si>
+  <si>
+    <t>120700</t>
+  </si>
+  <si>
+    <t>97093</t>
+  </si>
+  <si>
+    <t>142582</t>
+  </si>
+  <si>
+    <t>39384</t>
+  </si>
+  <si>
+    <t>77755</t>
+  </si>
+  <si>
+    <t>139434</t>
+  </si>
+  <si>
+    <t>124550</t>
+  </si>
+  <si>
+    <t>93622</t>
   </si>
 </sst>
 </file>
@@ -698,7 +743,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -743,7 +788,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -762,7 +807,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -771,7 +815,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1053,17 +1097,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="4"/>
     <col min="2" max="2" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="8" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" style="6" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" style="6" customWidth="1"/>
     <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
@@ -1076,7 +1120,7 @@
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>118</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -1087,11 +1131,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -1105,10 +1149,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -1121,11 +1165,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>133</v>
+      <c r="A4" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -1139,10 +1183,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -1153,51 +1197,52 @@
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>138</v>
+        <v>219</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>2</v>
@@ -1205,71 +1250,69 @@
       <c r="E8" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>219</v>
+        <v>126</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="11"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="11"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2" t="str">
-        <f>+B12</f>
-        <v>DOÑA MARIA</v>
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>5</v>
@@ -1278,32 +1321,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>5</v>
@@ -1312,33 +1355,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2" t="str">
-        <f>+B15</f>
-        <v>CAPACHOS</v>
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>5</v>
@@ -1349,14 +1391,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="2" t="str">
-        <f>+B17</f>
-        <v>TOCA</v>
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>5</v>
@@ -1367,10 +1408,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>120</v>
@@ -1384,47 +1425,47 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>5</v>
@@ -1435,13 +1476,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>5</v>
@@ -1452,64 +1493,64 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>5</v>
@@ -1520,50 +1561,50 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>141</v>
+        <v>206</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>19</v>
@@ -1571,67 +1612,67 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>19</v>
@@ -1639,47 +1680,47 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>210</v>
+        <v>157</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>18</v>
@@ -1690,13 +1731,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>18</v>
@@ -1707,13 +1748,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>18</v>
@@ -1724,13 +1765,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>18</v>
@@ -1741,13 +1782,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>18</v>
@@ -1758,13 +1799,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>18</v>
@@ -1775,13 +1816,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>18</v>
@@ -1792,13 +1833,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>18</v>
@@ -1809,13 +1850,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>18</v>
@@ -1826,13 +1867,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>18</v>
@@ -1843,13 +1884,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>18</v>
@@ -1860,13 +1901,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>18</v>
@@ -1877,13 +1918,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>18</v>
@@ -1894,13 +1935,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>18</v>
@@ -1911,13 +1952,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>18</v>
@@ -1928,13 +1969,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>18</v>
@@ -1945,13 +1986,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>18</v>
@@ -1962,13 +2003,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>18</v>
@@ -1979,13 +2020,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>18</v>
@@ -1996,13 +2037,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>18</v>
@@ -2013,10 +2054,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>107</v>
@@ -2030,10 +2071,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>107</v>
@@ -2047,13 +2088,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>18</v>
@@ -2064,13 +2105,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>18</v>
@@ -2081,13 +2122,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>18</v>
@@ -2098,13 +2139,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>18</v>
@@ -2115,13 +2156,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>18</v>
@@ -2132,13 +2173,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>18</v>
@@ -2149,237 +2190,234 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="2" t="str">
-        <f>+C64</f>
-        <v>CARACARA</v>
+        <v>74</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C66" s="2" t="str">
-        <f>+C65</f>
-        <v>CARACARA</v>
+        <v>75</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C67" s="2" t="str">
-        <f>+C66</f>
-        <v>CARACARA</v>
+        <v>77</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>18</v>
@@ -2390,13 +2428,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>18</v>
@@ -2407,10 +2445,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>72</v>
@@ -2424,10 +2462,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>109</v>
@@ -2441,16 +2479,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>73</v>
@@ -2458,16 +2496,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>73</v>
@@ -2475,214 +2513,214 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>189</v>
+        <v>123</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
-        <v>209</v>
+      <c r="A93" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>109</v>
@@ -2696,16 +2734,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>73</v>
@@ -2713,40 +2751,312 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>218</v>
+        <v>148</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="E97" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>73</v>
       </c>
     </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E97"/>
+  <autoFilter ref="A1:E113"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2973,14 +3283,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C1B9B3C-4722-4874-8798-B81B9B6F91AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C617D9-8064-4F9E-848F-971B706D488A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2993,6 +3295,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="7cd710cb-49ab-46db-a349-b062c519cda6"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C1B9B3C-4722-4874-8798-B81B9B6F91AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/bd/DISTRIBUCION  DE CAMPOS  GAC 2020.xlsx
+++ b/bd/DISTRIBUCION  DE CAMPOS  GAC 2020.xlsx
@@ -1100,7 +1100,7 @@
   <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1311,8 +1311,8 @@
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>115</v>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>5</v>
@@ -3045,21 +3045,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E236946BD814C54BB22A20EFB5E1111D" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="86f63bfa0d0969920d40911bc9216014">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7cd710cb-49ab-46db-a349-b062c519cda6" xmlns:ns4="6c75cb1f-1e2b-49d1-8289-20651f4935b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="485088cba347f8b48a697c46e301beb3" ns3:_="" ns4:_="">
     <xsd:import namespace="7cd710cb-49ab-46db-a349-b062c519cda6"/>
@@ -3282,32 +3267,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C617D9-8064-4F9E-848F-971B706D488A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6c75cb1f-1e2b-49d1-8289-20651f4935b0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7cd710cb-49ab-46db-a349-b062c519cda6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C1B9B3C-4722-4874-8798-B81B9B6F91AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B88C0C9-65FE-4E9F-BA05-E989639448E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3324,4 +3299,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C1B9B3C-4722-4874-8798-B81B9B6F91AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C617D9-8064-4F9E-848F-971B706D488A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6c75cb1f-1e2b-49d1-8289-20651f4935b0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7cd710cb-49ab-46db-a349-b062c519cda6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/bd/DISTRIBUCION  DE CAMPOS  GAC 2020.xlsx
+++ b/bd/DISTRIBUCION  DE CAMPOS  GAC 2020.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="261">
   <si>
     <t>CAMPO</t>
   </si>
@@ -735,6 +735,81 @@
   </si>
   <si>
     <t>93622</t>
+  </si>
+  <si>
+    <t>TRONOS</t>
+  </si>
+  <si>
+    <t>112481</t>
+  </si>
+  <si>
+    <t>LILIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPON </t>
+  </si>
+  <si>
+    <t>POTROS</t>
+  </si>
+  <si>
+    <t>LOS ACEITES</t>
+  </si>
+  <si>
+    <t>GUACHIRIA</t>
+  </si>
+  <si>
+    <t>PRIMAVERA</t>
+  </si>
+  <si>
+    <t>TOTUMAL</t>
+  </si>
+  <si>
+    <t>FORTUNA</t>
+  </si>
+  <si>
+    <t>TIERRA BLANCA</t>
+  </si>
+  <si>
+    <t>Cosecha</t>
+  </si>
+  <si>
+    <t>79811</t>
+  </si>
+  <si>
+    <t>96623</t>
+  </si>
+  <si>
+    <t>143800</t>
+  </si>
+  <si>
+    <t>80522</t>
+  </si>
+  <si>
+    <t>143799</t>
+  </si>
+  <si>
+    <t>79834</t>
+  </si>
+  <si>
+    <t>142790</t>
+  </si>
+  <si>
+    <t>78811</t>
+  </si>
+  <si>
+    <t>78917</t>
+  </si>
+  <si>
+    <t>38763</t>
+  </si>
+  <si>
+    <t>140238</t>
+  </si>
+  <si>
+    <t>FINN</t>
+  </si>
+  <si>
+    <t>143174</t>
   </si>
 </sst>
 </file>
@@ -1097,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3038,6 +3113,227 @@
         <v>19</v>
       </c>
     </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E113"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3045,6 +3341,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E236946BD814C54BB22A20EFB5E1111D" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="86f63bfa0d0969920d40911bc9216014">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7cd710cb-49ab-46db-a349-b062c519cda6" xmlns:ns4="6c75cb1f-1e2b-49d1-8289-20651f4935b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="485088cba347f8b48a697c46e301beb3" ns3:_="" ns4:_="">
     <xsd:import namespace="7cd710cb-49ab-46db-a349-b062c519cda6"/>
@@ -3267,22 +3578,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C617D9-8064-4F9E-848F-971B706D488A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6c75cb1f-1e2b-49d1-8289-20651f4935b0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7cd710cb-49ab-46db-a349-b062c519cda6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C1B9B3C-4722-4874-8798-B81B9B6F91AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B88C0C9-65FE-4E9F-BA05-E989639448E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3299,29 +3620,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C1B9B3C-4722-4874-8798-B81B9B6F91AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C617D9-8064-4F9E-848F-971B706D488A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6c75cb1f-1e2b-49d1-8289-20651f4935b0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7cd710cb-49ab-46db-a349-b062c519cda6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/bd/DISTRIBUCION  DE CAMPOS  GAC 2020.xlsx
+++ b/bd/DISTRIBUCION  DE CAMPOS  GAC 2020.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$E$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$E$126</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="260">
   <si>
     <t>CAMPO</t>
   </si>
@@ -749,9 +749,6 @@
     <t xml:space="preserve">OPON </t>
   </si>
   <si>
-    <t>POTROS</t>
-  </si>
-  <si>
     <t>LOS ACEITES</t>
   </si>
   <si>
@@ -770,9 +767,6 @@
     <t>TIERRA BLANCA</t>
   </si>
   <si>
-    <t>Cosecha</t>
-  </si>
-  <si>
     <t>79811</t>
   </si>
   <si>
@@ -810,6 +804,9 @@
   </si>
   <si>
     <t>143174</t>
+  </si>
+  <si>
+    <t>LOS POTROS</t>
   </si>
 </sst>
 </file>
@@ -1175,7 +1172,7 @@
   <dimension ref="A1:H126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3132,7 +3129,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>238</v>
@@ -3149,10 +3146,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>60</v>
@@ -3166,13 +3163,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B117" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>242</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>5</v>
@@ -3183,13 +3180,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B118" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>242</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>5</v>
@@ -3200,13 +3197,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>5</v>
@@ -3217,13 +3214,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>5</v>
@@ -3234,13 +3231,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B121" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C121" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>5</v>
@@ -3251,13 +3248,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B122" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>5</v>
@@ -3268,13 +3265,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B123" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C123" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>5</v>
@@ -3285,10 +3282,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>105</v>
@@ -3302,13 +3299,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>247</v>
+        <v>109</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>18</v>
@@ -3319,13 +3316,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>247</v>
+        <v>109</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>18</v>
@@ -3335,27 +3332,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E113"/>
+  <autoFilter ref="A1:E126"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E236946BD814C54BB22A20EFB5E1111D" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="86f63bfa0d0969920d40911bc9216014">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7cd710cb-49ab-46db-a349-b062c519cda6" xmlns:ns4="6c75cb1f-1e2b-49d1-8289-20651f4935b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="485088cba347f8b48a697c46e301beb3" ns3:_="" ns4:_="">
     <xsd:import namespace="7cd710cb-49ab-46db-a349-b062c519cda6"/>
@@ -3578,32 +3560,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C617D9-8064-4F9E-848F-971B706D488A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6c75cb1f-1e2b-49d1-8289-20651f4935b0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7cd710cb-49ab-46db-a349-b062c519cda6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C1B9B3C-4722-4874-8798-B81B9B6F91AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B88C0C9-65FE-4E9F-BA05-E989639448E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3620,4 +3592,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C617D9-8064-4F9E-848F-971B706D488A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="7cd710cb-49ab-46db-a349-b062c519cda6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="6c75cb1f-1e2b-49d1-8289-20651f4935b0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C1B9B3C-4722-4874-8798-B81B9B6F91AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>